--- a/export_data.xlsx
+++ b/export_data.xlsx
@@ -16,8 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,6 +28,7 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -34,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,15 +46,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="datetime" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -434,7 +442,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ngày Tháng Năm Sinh</t>
+          <t>Ngày Sinh</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -451,21 +459,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HS005</t>
+          <t>HS002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doan Van E</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2006-09-20</t>
-        </is>
+          <t>Tran Thi B</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>37725</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
